--- a/specifications/lp/Business intelligence systems - Project - Loan Portfolio Data Specification - V6.5.xlsx
+++ b/specifications/lp/Business intelligence systems - Project - Loan Portfolio Data Specification - V6.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ShrForms\specifications\lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C73B66C-3EAC-474C-8E61-2D4A62CC58B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A25434-9D76-486A-B8C5-D9B68ABA6192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="2" r:id="rId1"/>
@@ -37,6 +37,9 @@
     <sheet name="LOV Embedded Int Rate Deriv" sheetId="23" state="hidden" r:id="rId22"/>
   </sheets>
   <definedNames>
+    <definedName name="pfo_count_eird">Data!$G$5</definedName>
+    <definedName name="pfo_count_erd">Data!$G$5</definedName>
+    <definedName name="pfo_count_erds">Data!$G$5</definedName>
     <definedName name="Pfo_Page_Serial">Data!$G$3</definedName>
     <definedName name="Pfo_Page_Serial_Padded_4">Data!$G$4</definedName>
     <definedName name="Pfo_Serial">Data!$G$3</definedName>
@@ -56,8 +59,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1640">
   <si>
     <t>Field ID</t>
   </si>
@@ -4986,18 +5011,6 @@
     <t>Validation #6 Formula</t>
   </si>
   <si>
-    <t>12. First interest payment date must be the same as or earlier than 11. Final Capial Repayment Date</t>
-  </si>
-  <si>
-    <t>12. First interest payment date must be the same as 10. First Capital Repayment Date for Repayment Terms</t>
-  </si>
-  <si>
-    <t>12. First interest payment date must be prior to 10. First Capital Repayment Date for Repayment Terms</t>
-  </si>
-  <si>
-    <t>12. First interest payment date must be prior to 11. Final Capital Repayment Date for Repayment Terms</t>
-  </si>
-  <si>
     <t>If 1. Loan Type = "Fixed Rate Loan", "Fixed with embedded Intereat Rate Swaps", "Fixed without embedded Intererest Rate Swaps" or "Bond / Capital Market product", then 8. Reference Interest Rate must = "Fixed Rate Percentage"</t>
   </si>
   <si>
@@ -5335,6 +5348,15 @@
   </si>
   <si>
     <t>Choice(reference_interest_rate.csv,3)</t>
+  </si>
+  <si>
+    <t>12. First interest payment date must be the same as or earlier than 11. Final Capital Repayment Date</t>
+  </si>
+  <si>
+    <t>close({"closeChildren":true, "closeLabel":"Repay loan", "message":"Are you sure you want to repay this loan?", "closedMessage":"Loan has been repaid", "cantCloseMessage":"Can't mark this loan as repaid."})</t>
+  </si>
+  <si>
+    <t>Interest Rate Derivative exists but Loan type not (Fixed with embedded Interest Rate Swaps) OR(Revolving Loan / Credit Facility) OR (Variable with embedded Interest Rate Swaps)</t>
   </si>
 </sst>
 </file>
@@ -6476,6 +6498,10 @@
     <xf numFmtId="166" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6512,13 +6538,10 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6527,10 +6550,9 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Heading" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7851,10 +7873,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="205"/>
+      <c r="C2" s="207"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -8441,7 +8463,7 @@
         <v>1006</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -8455,7 +8477,7 @@
         <v>1006</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
   </sheetData>
@@ -8678,9 +8700,9 @@
       <c r="A42" s="44" t="s">
         <v>998</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42">
         <f>Data!H151</f>
-        <v>No</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -8817,10 +8839,10 @@
       <c r="C72" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="D72" s="212" t="s">
+      <c r="D72" s="214" t="s">
         <v>338</v>
       </c>
-      <c r="E72" s="213"/>
+      <c r="E72" s="215"/>
       <c r="F72" s="137"/>
       <c r="G72" s="137"/>
     </row>
@@ -8833,11 +8855,11 @@
         <f>Data!H167</f>
         <v>Debt Service Test (DST)</v>
       </c>
-      <c r="D73" s="214" t="str">
+      <c r="D73" s="216" t="str">
         <f>Data!H170</f>
         <v>Monthly</v>
       </c>
-      <c r="E73" s="214"/>
+      <c r="E73" s="216"/>
       <c r="F73" s="152" t="s">
         <v>1121</v>
       </c>
@@ -8864,8 +8886,8 @@
       <c r="E77" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="F77" s="206"/>
-      <c r="G77" s="207"/>
+      <c r="F77" s="208"/>
+      <c r="G77" s="209"/>
     </row>
     <row r="78" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="79">
@@ -9242,15 +9264,15 @@
       <c r="C8" s="74" t="s">
         <v>1120</v>
       </c>
-      <c r="D8" s="215" t="s">
+      <c r="D8" s="217" t="s">
         <v>173</v>
       </c>
       <c r="E8" s="218"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="215" t="s">
+      <c r="F8" s="219"/>
+      <c r="G8" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="216"/>
+      <c r="H8" s="219"/>
       <c r="I8" s="74"/>
       <c r="J8" s="74"/>
     </row>
@@ -9258,15 +9280,15 @@
       <c r="C9" s="75">
         <v>1431</v>
       </c>
-      <c r="D9" s="219" t="s">
+      <c r="D9" s="220" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="217">
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="222">
         <v>1000.1</v>
       </c>
-      <c r="H9" s="217"/>
+      <c r="H9" s="222"/>
       <c r="I9" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9278,15 +9300,15 @@
       <c r="C10" s="75">
         <v>1432</v>
       </c>
-      <c r="D10" s="219" t="s">
+      <c r="D10" s="220" t="s">
         <v>457</v>
       </c>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="217">
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="222">
         <v>2000.9</v>
       </c>
-      <c r="H10" s="217"/>
+      <c r="H10" s="222"/>
       <c r="I10" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9308,15 +9330,15 @@
       <c r="C12" s="74" t="s">
         <v>1120</v>
       </c>
-      <c r="D12" s="215" t="s">
+      <c r="D12" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="216"/>
-      <c r="F12" s="215" t="s">
+      <c r="E12" s="219"/>
+      <c r="F12" s="217" t="s">
         <v>338</v>
       </c>
       <c r="G12" s="218"/>
-      <c r="H12" s="216"/>
+      <c r="H12" s="219"/>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
     </row>
@@ -9324,15 +9346,15 @@
       <c r="C13" s="75">
         <v>13475</v>
       </c>
-      <c r="D13" s="219" t="s">
+      <c r="D13" s="220" t="s">
         <v>899</v>
       </c>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219" t="s">
+      <c r="E13" s="220"/>
+      <c r="F13" s="220" t="s">
         <v>878</v>
       </c>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
       <c r="I13" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9344,15 +9366,15 @@
       <c r="C14" s="75">
         <v>13476</v>
       </c>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="220" t="s">
         <v>917</v>
       </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219" t="s">
+      <c r="E14" s="220"/>
+      <c r="F14" s="220" t="s">
         <v>880</v>
       </c>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="220"/>
       <c r="I14" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9559,11 +9581,11 @@
       <c r="D25" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="215" t="s">
+      <c r="E25" s="217" t="s">
         <v>332</v>
       </c>
       <c r="F25" s="218"/>
-      <c r="G25" s="216"/>
+      <c r="G25" s="219"/>
       <c r="H25" s="74" t="s">
         <v>1123</v>
       </c>
@@ -9620,15 +9642,15 @@
       <c r="C29" s="74" t="s">
         <v>1120</v>
       </c>
-      <c r="D29" s="215" t="s">
+      <c r="D29" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="216"/>
-      <c r="F29" s="215" t="s">
+      <c r="E29" s="219"/>
+      <c r="F29" s="217" t="s">
         <v>338</v>
       </c>
       <c r="G29" s="218"/>
-      <c r="H29" s="216"/>
+      <c r="H29" s="219"/>
       <c r="I29" s="80"/>
       <c r="J29" s="74"/>
     </row>
@@ -9636,15 +9658,15 @@
       <c r="C30" s="75">
         <v>13473</v>
       </c>
-      <c r="D30" s="219" t="s">
+      <c r="D30" s="220" t="s">
         <v>899</v>
       </c>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219" t="s">
+      <c r="E30" s="220"/>
+      <c r="F30" s="220" t="s">
         <v>878</v>
       </c>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
       <c r="I30" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9656,15 +9678,15 @@
       <c r="C31" s="75">
         <v>13474</v>
       </c>
-      <c r="D31" s="219" t="s">
+      <c r="D31" s="220" t="s">
         <v>921</v>
       </c>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219" t="s">
+      <c r="E31" s="220"/>
+      <c r="F31" s="220" t="s">
         <v>880</v>
       </c>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
       <c r="I31" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9680,14 +9702,14 @@
       <c r="C33" s="74" t="s">
         <v>1120</v>
       </c>
-      <c r="D33" s="215" t="s">
+      <c r="D33" s="217" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="216"/>
-      <c r="F33" s="215" t="s">
+      <c r="E33" s="219"/>
+      <c r="F33" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="216"/>
+      <c r="G33" s="219"/>
       <c r="H33" s="81" t="s">
         <v>172</v>
       </c>
@@ -9698,14 +9720,14 @@
       <c r="C34" s="75">
         <v>1454</v>
       </c>
-      <c r="D34" s="219" t="s">
+      <c r="D34" s="220" t="s">
         <v>1140</v>
       </c>
-      <c r="E34" s="219"/>
-      <c r="F34" s="220">
+      <c r="E34" s="220"/>
+      <c r="F34" s="221">
         <v>43133</v>
       </c>
-      <c r="G34" s="220"/>
+      <c r="G34" s="221"/>
       <c r="H34" s="84">
         <v>43134</v>
       </c>
@@ -9720,14 +9742,14 @@
       <c r="C35" s="75">
         <v>1455</v>
       </c>
-      <c r="D35" s="219" t="s">
+      <c r="D35" s="220" t="s">
         <v>1140</v>
       </c>
-      <c r="E35" s="219"/>
-      <c r="F35" s="220">
+      <c r="E35" s="220"/>
+      <c r="F35" s="221">
         <v>43132</v>
       </c>
-      <c r="G35" s="220"/>
+      <c r="G35" s="221"/>
       <c r="H35" s="84">
         <v>43159</v>
       </c>
@@ -9743,6 +9765,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F30:H30"/>
@@ -9750,24 +9790,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14297,16 +14319,16 @@
         <v>345</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>346</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>146</v>
@@ -14559,18 +14581,18 @@
     </row>
     <row r="2" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B2" s="88"/>
       <c r="C2" s="88" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="88" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="3" spans="1:251" x14ac:dyDescent="0.2">
@@ -14591,18 +14613,18 @@
     </row>
     <row r="4" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="88" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="5" spans="1:251" x14ac:dyDescent="0.2">
@@ -14611,14 +14633,14 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="33" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="6" spans="1:251" x14ac:dyDescent="0.2">
@@ -14627,14 +14649,14 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="7" spans="1:251" x14ac:dyDescent="0.2">
@@ -14659,11 +14681,11 @@
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="33" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>1007</v>
@@ -14707,11 +14729,11 @@
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="88" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="88" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="F11" s="88" t="s">
         <v>1010</v>
@@ -14723,10 +14745,10 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="33" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>1017</v>
@@ -15335,9 +15357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q144" sqref="Q144"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O136" sqref="O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15376,14 +15398,14 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" s="156" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="155"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="158" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="C3" s="158"/>
       <c r="D3" s="159"/>
@@ -15393,18 +15415,21 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" s="158" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C4" s="158"/>
       <c r="D4" s="160"/>
       <c r="G4" s="186" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" s="154"/>
       <c r="C5" s="154"/>
       <c r="D5" s="155"/>
+      <c r="G5" s="186">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="154"/>
@@ -15482,10 +15507,10 @@
         <v>1524</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="Y8" s="11" t="s">
         <v>138</v>
@@ -15555,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="O10" s="101"/>
       <c r="P10" s="10"/>
@@ -15599,7 +15624,7 @@
       </c>
       <c r="I11" s="106"/>
       <c r="J11" s="100" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="K11" s="107" t="s">
         <v>131</v>
@@ -15689,14 +15714,12 @@
         <v>Submission.LPR005</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E13" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="107" t="s">
-        <v>1258</v>
-      </c>
+      <c r="F13" s="107"/>
       <c r="G13" s="108"/>
       <c r="H13" s="105">
         <v>44286</v>
@@ -15717,10 +15740,7 @@
       <c r="T13" s="108"/>
       <c r="U13" s="101"/>
       <c r="V13" s="108"/>
-      <c r="W13" s="194" t="b">
-        <f>H190 = "Annual"</f>
-        <v>1</v>
-      </c>
+      <c r="W13" s="194"/>
       <c r="X13" s="108"/>
       <c r="Y13" s="108" t="s">
         <v>231</v>
@@ -15739,7 +15759,7 @@
         <v>Submission.LPR005a</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>128</v>
@@ -15767,10 +15787,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="101"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="118" t="b">
-        <f>H190 = "In-Year"</f>
-        <v>0</v>
-      </c>
+      <c r="W14" s="118"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="27" t="s">
         <v>231</v>
@@ -16106,7 +16123,7 @@
     <row r="22" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="177" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="C22" s="177" t="str">
         <f>"Submission." &amp; B22</f>
@@ -16116,7 +16133,7 @@
         <v>1008</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="F22" s="181"/>
       <c r="G22" s="181"/>
@@ -16143,7 +16160,7 @@
     <row r="23" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="177" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C23" s="177" t="str">
         <f t="shared" ref="C23" si="1">"Submission." &amp; B23</f>
@@ -16153,7 +16170,7 @@
         <v>892</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="F23" s="181"/>
       <c r="G23" s="181"/>
@@ -16180,17 +16197,17 @@
     <row r="24" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="177" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C24" s="177" t="str">
         <f t="shared" si="0"/>
         <v>Submission.LPR100</v>
       </c>
       <c r="D24" s="178" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="E24" s="180" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F24" s="181"/>
       <c r="G24" s="181"/>
@@ -16217,17 +16234,17 @@
     <row r="25" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="177" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C25" s="177" t="str">
         <f t="shared" ref="C25" si="2">"Submission." &amp; B25</f>
         <v>Submission.LPR101</v>
       </c>
       <c r="D25" s="178" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="F25" s="181"/>
       <c r="G25" s="181"/>
@@ -16502,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="O31" s="101"/>
       <c r="P31" s="10"/>
@@ -16725,7 +16742,7 @@
         <v>IGFLend.LPIGF009</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>128</v>
@@ -16771,7 +16788,7 @@
         <v>IGFLend.LPIGF010</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>128</v>
@@ -17711,7 +17728,7 @@
     <row r="57" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="107" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="C57" s="118" t="str">
         <f t="shared" si="4"/>
@@ -17880,7 +17897,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="O60" s="101"/>
       <c r="P60" s="10"/>
@@ -18103,7 +18120,7 @@
         <v>IGFBorrow.LPIGF033</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>128</v>
@@ -18149,7 +18166,7 @@
         <v>IGFBorrow.LPIGF034</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>128</v>
@@ -19282,7 +19299,7 @@
     </row>
     <row r="90" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="23" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C90" s="118" t="str">
         <f t="shared" si="5"/>
@@ -19666,7 +19683,7 @@
         <v>183</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
@@ -19703,7 +19720,7 @@
     <row r="99" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="177" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C99" s="184" t="str">
         <f>"ISDA." &amp; B99</f>
@@ -19713,7 +19730,7 @@
         <v>1007</v>
       </c>
       <c r="E99" s="180" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="F99" s="181"/>
       <c r="G99" s="181"/>
@@ -19873,7 +19890,7 @@
         <v>336</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
@@ -20230,7 +20247,7 @@
         <v>Facility.LPF001</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>1347</v>
@@ -20242,7 +20259,7 @@
       </c>
       <c r="I111" s="104"/>
       <c r="J111" s="103" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>129</v>
@@ -20327,7 +20344,7 @@
         <v>342</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
@@ -20389,7 +20406,7 @@
         <v>DMOBOS0002</v>
       </c>
       <c r="J114" s="119" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="K114" s="107"/>
       <c r="L114" s="108"/>
@@ -20470,7 +20487,7 @@
         <v>1361</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
@@ -20870,7 +20887,7 @@
         <v>404</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
@@ -21236,7 +21253,7 @@
     <row r="132" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
       <c r="B132" s="177" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C132" s="184" t="str">
         <f>"Facility." &amp; B132</f>
@@ -21246,7 +21263,7 @@
         <v>1042</v>
       </c>
       <c r="E132" s="179" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="F132" s="181"/>
       <c r="G132" s="181"/>
@@ -21273,7 +21290,7 @@
     <row r="133" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
       <c r="B133" s="177" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C133" s="184" t="str">
         <f>"Facility." &amp; B133</f>
@@ -21283,7 +21300,7 @@
         <v>1010</v>
       </c>
       <c r="E133" s="179" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F133" s="181"/>
       <c r="G133" s="181"/>
@@ -21397,7 +21414,7 @@
         <v>162</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
@@ -21412,12 +21429,20 @@
       <c r="L136" s="10" t="s">
         <v>1261</v>
       </c>
-      <c r="M136" s="116"/>
+      <c r="M136" s="116" t="b" cm="1">
+        <f t="array" ref="M136">IF(OR(H136="FWEIRS",H136="VWES"),pfo_count_eird&gt;0,TRUE)</f>
+        <v>1</v>
+      </c>
       <c r="N136" s="10" t="s">
         <v>1522</v>
       </c>
-      <c r="O136" s="101"/>
-      <c r="P136" s="10"/>
+      <c r="O136" s="101" t="b" cm="1">
+        <f t="array" ref="O136">IF(pfo_count_eird &gt; 0,OR(H136="FWEIRS",H136="REVLNF",H136="VWES"), TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="P136" s="10" t="s">
+        <v>1639</v>
+      </c>
       <c r="Q136" s="101"/>
       <c r="R136" s="10"/>
       <c r="S136" s="101"/>
@@ -21492,7 +21517,7 @@
         <v>163</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="F138" s="17"/>
       <c r="G138" s="17"/>
@@ -21755,7 +21780,7 @@
         <v>166</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
@@ -21801,7 +21826,7 @@
         <v>167</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
@@ -21810,7 +21835,7 @@
       </c>
       <c r="I144" s="104"/>
       <c r="J144" s="100" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="K144" s="9" t="s">
         <v>129</v>
@@ -21823,25 +21848,28 @@
         <v>1</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="O144" s="101" t="b">
         <f>IF(H136="FIXIF",H144=4, TRUE)</f>
         <v>1</v>
       </c>
       <c r="P144" s="10" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="Q144" s="101" t="b">
         <f>IF(H144=3, OR(H136="FIXED",H136="FWEIRS",H136="FNEIRS", H136="BNDCAP"), TRUE)</f>
         <v>0</v>
       </c>
       <c r="R144" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="S144" s="101"/>
+        <v>1529</v>
+      </c>
+      <c r="S144" s="101" t="b">
+        <f>IF(H144=4,H136="FIXIF",TRUE)</f>
+        <v>1</v>
+      </c>
       <c r="T144" s="10" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="U144" s="101"/>
       <c r="V144" s="10"/>
@@ -21894,7 +21922,7 @@
       <c r="T145" s="10"/>
       <c r="U145" s="101"/>
       <c r="V145" s="10"/>
-      <c r="W145" s="222" t="b">
+      <c r="W145" s="205" t="b">
         <f>AND(H136&lt;&gt;"FIXIF",H136&lt;&gt;"BNDCAP",H136&lt;&gt;"FIXED", H136&lt;&gt;"FWEIRS",H136&lt;&gt;"FNEIRS")</f>
         <v>1</v>
       </c>
@@ -21906,7 +21934,7 @@
     </row>
     <row r="146" spans="2:27" ht="116.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="23" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C146" s="118" t="str">
         <f t="shared" si="8"/>
@@ -21944,7 +21972,7 @@
       <c r="T146" s="10"/>
       <c r="U146" s="101"/>
       <c r="V146" s="10"/>
-      <c r="W146" s="221" t="b">
+      <c r="W146" s="204" t="b">
         <f>NOT(AND(H136&lt;&gt;"FIXIF",H136&lt;&gt;"BNDCAP",H136&lt;&gt;"FIXED", H136&lt;&gt;"FWEIRS",H136&lt;&gt;"FNEIRS"))</f>
         <v>0</v>
       </c>
@@ -22034,8 +22062,8 @@
         <v>1463</v>
       </c>
       <c r="O148" s="122" t="b">
-        <f>AND(ABS(H148-I13)&lt;=H200,ABS(I13-H148)&lt;=H200)</f>
-        <v>0</v>
+        <f>AND(H148&gt;=H206, H148&lt;=H207)</f>
+        <v>1</v>
       </c>
       <c r="P148" s="10" t="s">
         <v>1466</v>
@@ -22093,8 +22121,8 @@
         <v>1465</v>
       </c>
       <c r="O149" s="122" t="b">
-        <f>AND(ABS(JH149-I13)&lt;=H201,ABS(I13-H149)&lt;=H200)</f>
-        <v>0</v>
+        <f>AND(H149&gt;=H206,H149&lt;=H207)</f>
+        <v>1</v>
       </c>
       <c r="P149" s="10" t="s">
         <v>1467</v>
@@ -22151,29 +22179,14 @@
         <v>1</v>
       </c>
       <c r="P150" s="10" t="s">
-        <v>1526</v>
-      </c>
-      <c r="Q150" s="101" t="b">
-        <f>OR(OR(H143="Interest only - Bullet repayment at end of term from cashflow",H143="Interest only - Bullet repayment at end of term from refinancing",H143="Interest only then capital and interest",H143="Interest only until fully drawn",H143="Interest only followed by structured capital repayments",H143="Repayable on demand",H143="Converted to loan",H143="Subject to annual renewal"),AND(OR(H143="Fully Amortising",H143="Payment start date deferred then fully amortising", H143="Payment start date deferred-bullet repayment of interest and capital at maturity",H143="Interest &amp; capital then bullet repayment from cashflow or refinancing"),H150=H148))</f>
-        <v>0</v>
-      </c>
-      <c r="R150" s="10" t="s">
-        <v>1527</v>
-      </c>
-      <c r="S150" s="101" t="b">
-        <f>OR(OR(H143="Fully Amortising",H143="Payment start date deferred then fully amortising", H143="Payment start date deferred-bullet repayment of interest and capital at maturity",H143="Interest &amp; capital then bullet repayment from cashflow or refinancing",H143="Interest only - Bullet repayment at end of term from cashflow",H143="Interest only - Bullet repayment at end of term from refinancing", H143="Repayable on demand",H143="Converted to loan",H143="Subject to annual renewal"),AND(OR(H143="Interest only then capital and interest",H143="Interest only until fully drawn",H143="Interest only followed by structured capital repayments",),J150&lt;J148))</f>
-        <v>1</v>
-      </c>
-      <c r="T150" s="10" t="s">
-        <v>1528</v>
-      </c>
-      <c r="U150" s="101" t="b">
-        <f>OR(OR(H143="Fully Amortising",H143="Payment start date deferred then fully amortising", H143="Payment start date deferred-bullet repayment of interest and capital at maturity",H143="Interest &amp; capital then bullet repayment from cashflow or refinancing", H143="Interest only then capital and interest", H143="Interest only followed by structured capital repayments",H143="Repayable on demand",H143="Converted to loan",H143="Subject to annual renewal"),AND(OR(H143="Interest only - Bullet repayment at end of term from cashflow",H143="Interest only - Bullet repayment at end of term from refinancing",H143="Interest only until fully drawn",),L150&lt;L149))</f>
-        <v>1</v>
-      </c>
-      <c r="V150" s="10" t="s">
-        <v>1529</v>
-      </c>
+        <v>1637</v>
+      </c>
+      <c r="Q150" s="101"/>
+      <c r="R150" s="10"/>
+      <c r="S150" s="101"/>
+      <c r="T150" s="10"/>
+      <c r="U150" s="101"/>
+      <c r="V150" s="10"/>
       <c r="W150" s="118" t="b">
         <f>AND( H144&lt;&gt;4,H144&lt;&gt;5)</f>
         <v>1</v>
@@ -22202,8 +22215,8 @@
       </c>
       <c r="F151" s="17"/>
       <c r="G151" s="17"/>
-      <c r="H151" s="103" t="s">
-        <v>934</v>
+      <c r="H151" s="103">
+        <v>2</v>
       </c>
       <c r="I151" s="104"/>
       <c r="J151" s="100"/>
@@ -22279,7 +22292,7 @@
       <c r="V152" s="61"/>
       <c r="W152" s="118" t="b">
         <f>H151=2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X152" s="10"/>
       <c r="Y152" s="16" t="s">
@@ -22327,7 +22340,7 @@
       <c r="V153" s="61"/>
       <c r="W153" s="118" t="b">
         <f>H151=2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X153" s="10"/>
       <c r="Y153" s="16" t="s">
@@ -22350,7 +22363,7 @@
         <v>968</v>
       </c>
       <c r="E154" s="23" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
@@ -22774,8 +22787,8 @@
       <c r="D163" s="16" t="s">
         <v>1000</v>
       </c>
-      <c r="E163" s="23" t="s">
-        <v>1375</v>
+      <c r="E163" s="178" t="s">
+        <v>1638</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="17"/>
@@ -22815,17 +22828,17 @@
     <row r="164" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15"/>
       <c r="B164" s="177" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="C164" s="118" t="str">
         <f t="shared" si="8"/>
         <v>Loan.LPL100</v>
       </c>
       <c r="D164" s="178" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E164" s="179" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="F164" s="181"/>
       <c r="G164" s="181"/>
@@ -22852,17 +22865,17 @@
     <row r="165" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15"/>
       <c r="B165" s="177" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="C165" s="118" t="str">
         <f t="shared" si="8"/>
         <v>Loan.LPL101</v>
       </c>
       <c r="D165" s="178" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E165" s="179" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="F165" s="181"/>
       <c r="G165" s="181"/>
@@ -22947,7 +22960,7 @@
         <v>336</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
@@ -23294,7 +23307,7 @@
         <v>1508</v>
       </c>
       <c r="E175" s="23" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
@@ -23357,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="O176" s="101"/>
       <c r="P176" s="10"/>
@@ -23561,7 +23574,7 @@
     </row>
     <row r="181" spans="1:26" s="18" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="23" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="C181" s="118" t="str">
         <f t="shared" si="10"/>
@@ -23774,13 +23787,13 @@
         <v>395</v>
       </c>
       <c r="C186" s="63" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D186" s="125" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="23"/>
@@ -23833,7 +23846,7 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B188" s="128" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="C188" s="129" t="s">
         <v>1401</v>
@@ -23870,7 +23883,7 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B189" s="128" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="C189" s="129" t="s">
         <v>1405</v>
@@ -23907,7 +23920,7 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B190" s="128" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="C190" s="129" t="s">
         <v>1409</v>
@@ -23944,7 +23957,7 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B191" s="128" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="C191" s="129" t="s">
         <v>1410</v>
@@ -23981,7 +23994,7 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B192" s="128" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C192" s="129" t="s">
         <v>1413</v>
@@ -24018,7 +24031,7 @@
     </row>
     <row r="193" spans="2:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B193" s="128" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="C193" s="129" t="s">
         <v>1415</v>
@@ -24055,16 +24068,16 @@
     </row>
     <row r="194" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B194" s="128" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C194" s="129" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="D194" s="129" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="E194" s="128" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="F194" s="128"/>
       <c r="G194" s="129"/>
@@ -24094,13 +24107,13 @@
     </row>
     <row r="195" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B195" s="128" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C195" s="129" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="D195" s="129" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="E195" s="128" t="s">
         <v>1421</v>
@@ -24133,7 +24146,7 @@
     </row>
     <row r="196" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B196" s="128" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C196" s="129" t="s">
         <v>1419</v>
@@ -24170,7 +24183,7 @@
     </row>
     <row r="197" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B197" s="128" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="C197" s="129" t="s">
         <v>1422</v>
@@ -24207,7 +24220,7 @@
     </row>
     <row r="198" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B198" s="128" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="C198" s="129" t="s">
         <v>1424</v>
@@ -24244,7 +24257,7 @@
     </row>
     <row r="199" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B199" s="128" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="C199" s="129" t="s">
         <v>1426</v>
@@ -24281,7 +24294,7 @@
     </row>
     <row r="200" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B200" s="128" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="C200" s="129" t="s">
         <v>1428</v>
@@ -24317,7 +24330,7 @@
     </row>
     <row r="201" spans="2:26" ht="318.75" x14ac:dyDescent="0.2">
       <c r="B201" s="128" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="C201" s="129" t="s">
         <v>1430</v>
@@ -24352,7 +24365,7 @@
     </row>
     <row r="202" spans="2:26" ht="409.5" x14ac:dyDescent="0.2">
       <c r="B202" s="128" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="C202" s="129" t="s">
         <v>1434</v>
@@ -24387,7 +24400,7 @@
     </row>
     <row r="203" spans="2:26" ht="357" x14ac:dyDescent="0.2">
       <c r="B203" s="128" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C203" s="129" t="s">
         <v>1436</v>
@@ -24422,7 +24435,7 @@
     </row>
     <row r="204" spans="2:26" ht="229.5" x14ac:dyDescent="0.2">
       <c r="B204" s="128" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="C204" s="129" t="s">
         <v>1439</v>
@@ -24457,13 +24470,13 @@
     </row>
     <row r="205" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B205" s="165" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="C205" s="187" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D205" s="187" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E205" s="128" t="s">
         <v>1407</v>
@@ -24471,7 +24484,7 @@
       <c r="F205" s="164"/>
       <c r="G205" s="187"/>
       <c r="H205" s="188" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="I205" s="188"/>
       <c r="J205" s="188"/>
@@ -24492,13 +24505,13 @@
     </row>
     <row r="206" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B206" s="165" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="C206" s="187" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D206" s="187" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="E206" s="164" t="s">
         <v>1412</v>
@@ -24527,13 +24540,13 @@
     </row>
     <row r="207" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B207" s="165" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="C207" s="187" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="D207" s="187" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="E207" s="164" t="s">
         <v>1412</v>
@@ -24562,7 +24575,7 @@
     </row>
     <row r="208" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B208" s="165" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
   </sheetData>
@@ -24892,25 +24905,25 @@
       <c r="B41" s="44" t="s">
         <v>892</v>
       </c>
-      <c r="C41" s="208"/>
-      <c r="D41" s="208"/>
-      <c r="E41" s="208"/>
+      <c r="C41" s="210"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="210"/>
     </row>
     <row r="42" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" s="80" t="s">
         <v>1120</v>
       </c>
-      <c r="C42" s="206" t="s">
+      <c r="C42" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="209"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="206" t="s">
+      <c r="D42" s="211"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="G42" s="209"/>
-      <c r="H42" s="207"/>
+      <c r="G42" s="211"/>
+      <c r="H42" s="209"/>
       <c r="I42" s="80"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -24919,18 +24932,18 @@
         <f>Data!I83</f>
         <v>1</v>
       </c>
-      <c r="C43" s="210" t="str">
+      <c r="C43" s="212" t="str">
         <f>Data!H84</f>
         <v>Clydesdale Bank plc</v>
       </c>
-      <c r="D43" s="210"/>
-      <c r="E43" s="210"/>
-      <c r="F43" s="211">
+      <c r="D43" s="212"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="213">
         <f>Data!H85</f>
         <v>10000</v>
       </c>
-      <c r="G43" s="211"/>
-      <c r="H43" s="211"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
       <c r="I43" t="s">
         <v>1143</v>
       </c>
@@ -24960,10 +24973,10 @@
       <c r="B48" s="80" t="s">
         <v>1120</v>
       </c>
-      <c r="C48" s="206" t="s">
+      <c r="C48" s="208" t="s">
         <v>1126</v>
       </c>
-      <c r="D48" s="207"/>
+      <c r="D48" s="209"/>
       <c r="E48" s="80" t="s">
         <v>1127</v>
       </c>
@@ -25012,8 +25025,8 @@
       <c r="B50" s="80" t="s">
         <v>1137</v>
       </c>
-      <c r="C50" s="206"/>
-      <c r="D50" s="207"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="209"/>
       <c r="E50" s="142">
         <f>SUM(E49)</f>
         <v>20000</v>
@@ -25026,8 +25039,8 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H50" s="206"/>
-      <c r="I50" s="207"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="209"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" s="33" t="s">
@@ -25823,8 +25836,8 @@
       <c r="D44" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="E44" s="206"/>
-      <c r="F44" s="207"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="209"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="79">

--- a/specifications/lp/Business intelligence systems - Project - Loan Portfolio Data Specification - V6.5.xlsx
+++ b/specifications/lp/Business intelligence systems - Project - Loan Portfolio Data Specification - V6.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ShrForms\specifications\lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A25434-9D76-486A-B8C5-D9B68ABA6192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941AF8CC-3377-4910-BD89-CCFEC014F8C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="2" r:id="rId1"/>
@@ -40,9 +40,14 @@
     <definedName name="pfo_count_eird">Data!$G$5</definedName>
     <definedName name="pfo_count_erd">Data!$G$5</definedName>
     <definedName name="pfo_count_erds">Data!$G$5</definedName>
+    <definedName name="pfo_lpf003_first">Data!$H$4</definedName>
+    <definedName name="pfo_lpf003_length">Data!$H$3</definedName>
+    <definedName name="pfo_lpf005b_first">Data!$I$3</definedName>
+    <definedName name="pfo_lpf005b_length">Data!$H$5</definedName>
     <definedName name="Pfo_Page_Serial">Data!$G$3</definedName>
     <definedName name="Pfo_Page_Serial_Padded_4">Data!$G$4</definedName>
     <definedName name="Pfo_Serial">Data!$G$3</definedName>
+    <definedName name="pfo_total_loan_lpl007">Data!$I$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="1646">
   <si>
     <t>Field ID</t>
   </si>
@@ -4495,9 +4500,6 @@
     <t>8. Balance of Facility outstaning cannot be greater than 7. Total Facility</t>
   </si>
   <si>
-    <t>Must = Sum of [LO_Balance_Outstanding] for all Loan records.</t>
-  </si>
-  <si>
     <t>9. Facility Undrawn cannot be greater than 7. Total Facility</t>
   </si>
   <si>
@@ -4924,9 +4926,6 @@
   </si>
   <si>
     <t>LPC018a</t>
-  </si>
-  <si>
-    <t>4. Date To cannot be before 3. Date From</t>
   </si>
   <si>
     <t>DERIVED
@@ -5105,9 +5104,6 @@
     <t>LPC100</t>
   </si>
   <si>
-    <t>Choice(fac_undrawn_purpose.csv)</t>
-  </si>
-  <si>
     <t>Grid({"page":"isdacovenant", "createLabel":"Create ISDA Covenant", "columns":["LPC003a", "LPC004a","LPC007"]})</t>
   </si>
   <si>
@@ -5357,6 +5353,33 @@
   </si>
   <si>
     <t>Interest Rate Derivative exists but Loan type not (Fixed with embedded Interest Rate Swaps) OR(Revolving Loan / Credit Facility) OR (Variable with embedded Interest Rate Swaps)</t>
+  </si>
+  <si>
+    <t>5. Date To cannot be before 4. Date From</t>
+  </si>
+  <si>
+    <t>6. Margin Over Reference Interest Rate / 6. All-in fixed rate is outside the range set by SHR</t>
+  </si>
+  <si>
+    <t>pfo_lpf003_length</t>
+  </si>
+  <si>
+    <t>close({"closeChildren":false, "closeLabel":"Close facility", "message":"Are you sure you want to close this facility?", "closedMessage":"Facility has been closed", "cantCloseMessage":"Can't close this facility."})</t>
+  </si>
+  <si>
+    <t>Must equal sum of all balances outstanding for all Loans in this facility.</t>
+  </si>
+  <si>
+    <t>Choice(fac_undrawn_purpose.csv,3)</t>
+  </si>
+  <si>
+    <t>Choice(lender.csv,3)</t>
+  </si>
+  <si>
+    <t>Choice(basis_of_valuation.csv,3)</t>
+  </si>
+  <si>
+    <t>Choice(covenant_type.csv,3)</t>
   </si>
 </sst>
 </file>
@@ -8463,7 +8486,7 @@
         <v>1006</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -8477,7 +8500,7 @@
         <v>1006</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
@@ -8547,7 +8570,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B10" s="139" t="e">
         <f>Data!#REF!</f>
@@ -8565,7 +8588,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B14" s="149" t="str">
         <f>Data!I137</f>
@@ -8583,7 +8606,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B18" s="140" t="str">
         <f>Data!H139</f>
@@ -8641,7 +8664,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B30">
         <f>Data!H145</f>
@@ -8653,7 +8676,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B32">
         <f>Data!H146</f>
@@ -8707,12 +8730,12 @@
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="145" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B44" s="111">
         <f>Data!H152</f>
@@ -8739,12 +8762,12 @@
     </row>
     <row r="50" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="145" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B52" t="b">
         <f>Data!H155</f>
@@ -8771,7 +8794,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="44" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B58" s="112" t="str">
         <f>Data!H158</f>
@@ -8789,7 +8812,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="44" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B62" s="140">
         <f>Data!H160</f>
@@ -8801,7 +8824,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="44" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B64" s="111" t="str">
         <f>Data!H161</f>
@@ -8810,7 +8833,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="44" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B66" s="111">
         <f>Data!H162</f>
@@ -8828,7 +8851,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B70" s="44" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8869,7 +8892,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8915,7 +8938,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>
@@ -8952,7 +8975,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B3" s="139" t="e">
         <f>Data!#REF!</f>
@@ -8961,7 +8984,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B5" s="139" t="e">
         <f>Data!#REF!</f>
@@ -9056,7 +9079,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B3" s="139" t="e">
         <f>Data!#REF!</f>
@@ -9065,7 +9088,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B5" s="139" t="e">
         <f>Data!#REF!</f>
@@ -9083,7 +9106,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B9" t="str">
         <f>Data!H175</f>
@@ -9104,7 +9127,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B13" s="111">
         <f>Data!H177</f>
@@ -9113,7 +9136,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B15" s="111">
         <f>Data!H178</f>
@@ -9122,7 +9145,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B17">
         <f>Data!H179</f>
@@ -9131,7 +9154,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B19">
         <f>Data!H180</f>
@@ -9140,7 +9163,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B21" t="b">
         <f>Data!H181</f>
@@ -14278,7 +14301,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -14286,7 +14309,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -14319,16 +14342,16 @@
         <v>345</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>346</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>146</v>
@@ -14581,18 +14604,18 @@
     </row>
     <row r="2" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="B2" s="88"/>
       <c r="C2" s="88" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="88" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="3" spans="1:251" x14ac:dyDescent="0.2">
@@ -14613,18 +14636,18 @@
     </row>
     <row r="4" spans="1:251" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="88" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="5" spans="1:251" x14ac:dyDescent="0.2">
@@ -14633,14 +14656,14 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="33" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="6" spans="1:251" x14ac:dyDescent="0.2">
@@ -14649,14 +14672,14 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="7" spans="1:251" x14ac:dyDescent="0.2">
@@ -14681,11 +14704,11 @@
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="33" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>1007</v>
@@ -14729,11 +14752,11 @@
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="88" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="88" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="F11" s="88" t="s">
         <v>1010</v>
@@ -14745,10 +14768,10 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="33" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>1017</v>
@@ -15341,7 +15364,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -15357,9 +15380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O136" sqref="O136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15398,29 +15421,41 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" s="156" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="155"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="158" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C3" s="158"/>
       <c r="D3" s="159"/>
       <c r="G3" s="168">
         <v>1</v>
       </c>
+      <c r="H3" s="168">
+        <v>1</v>
+      </c>
+      <c r="I3" s="168" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" s="158" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C4" s="158"/>
       <c r="D4" s="160"/>
       <c r="G4" s="186" t="s">
-        <v>1588</v>
+        <v>1585</v>
+      </c>
+      <c r="H4" s="168" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4">
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -15430,6 +15465,9 @@
       <c r="G5" s="186">
         <v>1</v>
       </c>
+      <c r="H5" s="168">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="154"/>
@@ -15495,22 +15533,22 @@
         <v>1322</v>
       </c>
       <c r="S8" s="11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>1522</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>1523</v>
       </c>
-      <c r="T8" s="11" t="s">
-        <v>1524</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>1525</v>
-      </c>
       <c r="V8" s="11" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="Y8" s="11" t="s">
         <v>138</v>
@@ -15580,7 +15618,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="O10" s="101"/>
       <c r="P10" s="10"/>
@@ -15624,7 +15662,7 @@
       </c>
       <c r="I11" s="106"/>
       <c r="J11" s="100" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="K11" s="107" t="s">
         <v>131</v>
@@ -15714,7 +15752,7 @@
         <v>Submission.LPR005</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E13" s="107" t="s">
         <v>128</v>
@@ -15759,7 +15797,7 @@
         <v>Submission.LPR005a</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>128</v>
@@ -16123,7 +16161,7 @@
     <row r="22" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="177" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C22" s="177" t="str">
         <f>"Submission." &amp; B22</f>
@@ -16133,7 +16171,7 @@
         <v>1008</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="F22" s="181"/>
       <c r="G22" s="181"/>
@@ -16160,7 +16198,7 @@
     <row r="23" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="177" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C23" s="177" t="str">
         <f t="shared" ref="C23" si="1">"Submission." &amp; B23</f>
@@ -16170,7 +16208,7 @@
         <v>892</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="F23" s="181"/>
       <c r="G23" s="181"/>
@@ -16197,17 +16235,17 @@
     <row r="24" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="177" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C24" s="177" t="str">
         <f t="shared" si="0"/>
         <v>Submission.LPR100</v>
       </c>
       <c r="D24" s="178" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E24" s="180" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="F24" s="181"/>
       <c r="G24" s="181"/>
@@ -16234,17 +16272,17 @@
     <row r="25" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="177" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C25" s="177" t="str">
         <f t="shared" ref="C25" si="2">"Submission." &amp; B25</f>
         <v>Submission.LPR101</v>
       </c>
       <c r="D25" s="178" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E25" s="179" t="s">
         <v>1551</v>
-      </c>
-      <c r="E25" s="179" t="s">
-        <v>1553</v>
       </c>
       <c r="F25" s="181"/>
       <c r="G25" s="181"/>
@@ -16519,7 +16557,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="O31" s="101"/>
       <c r="P31" s="10"/>
@@ -16742,7 +16780,7 @@
         <v>IGFLend.LPIGF009</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>128</v>
@@ -16788,7 +16826,7 @@
         <v>IGFLend.LPIGF010</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>128</v>
@@ -17432,7 +17470,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="101"/>
       <c r="N50" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="O50" s="101"/>
       <c r="P50" s="16"/>
@@ -17728,7 +17766,7 @@
     <row r="57" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="107" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C57" s="118" t="str">
         <f t="shared" si="4"/>
@@ -17897,7 +17935,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="O60" s="101"/>
       <c r="P60" s="10"/>
@@ -18120,7 +18158,7 @@
         <v>IGFBorrow.LPIGF033</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>128</v>
@@ -18166,7 +18204,7 @@
         <v>IGFBorrow.LPIGF034</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>128</v>
@@ -18556,7 +18594,7 @@
         <v>IGFBorrow.LPIGF041</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E74" s="110" t="s">
         <v>1267</v>
@@ -18820,7 +18858,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="101"/>
       <c r="N79" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="O79" s="101"/>
       <c r="P79" s="16"/>
@@ -18851,7 +18889,7 @@
         <v>IGFBorrow.LPIGF045</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>1299</v>
@@ -19029,7 +19067,7 @@
         <v>173</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>1347</v>
+        <v>1643</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
@@ -19216,7 +19254,7 @@
         <v>176</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>1297</v>
+        <v>1633</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -19299,7 +19337,7 @@
     </row>
     <row r="90" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="23" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C90" s="118" t="str">
         <f t="shared" si="5"/>
@@ -19371,7 +19409,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="101"/>
       <c r="N91" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="O91" s="101"/>
       <c r="P91" s="16"/>
@@ -19636,7 +19674,7 @@
         <v>182</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>1480</v>
+        <v>1644</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
@@ -19683,7 +19721,7 @@
         <v>183</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
@@ -19720,7 +19758,7 @@
     <row r="99" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="177" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C99" s="184" t="str">
         <f>"ISDA." &amp; B99</f>
@@ -19730,7 +19768,7 @@
         <v>1007</v>
       </c>
       <c r="E99" s="180" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="F99" s="181"/>
       <c r="G99" s="181"/>
@@ -19793,7 +19831,7 @@
       </c>
       <c r="C101" s="170"/>
       <c r="D101" s="171" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E101" s="170" t="s">
         <v>1267</v>
@@ -19802,7 +19840,7 @@
         <v>1258</v>
       </c>
       <c r="G101" s="171" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H101" s="172"/>
       <c r="I101" s="173"/>
@@ -19890,7 +19928,7 @@
         <v>336</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>1555</v>
+        <v>1645</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
@@ -19903,7 +19941,10 @@
         <v>129</v>
       </c>
       <c r="L103" s="10"/>
-      <c r="M103" s="101"/>
+      <c r="M103" s="101" t="b">
+        <f>H103&lt;&gt;""</f>
+        <v>1</v>
+      </c>
       <c r="N103" s="10"/>
       <c r="O103" s="101"/>
       <c r="P103" s="10"/>
@@ -19942,7 +19983,7 @@
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
       <c r="H104" s="103" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I104" s="104"/>
       <c r="J104" s="100"/>
@@ -19955,7 +19996,7 @@
         <v>1</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="O104" s="101"/>
       <c r="P104" s="10"/>
@@ -19992,7 +20033,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="148" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I105" s="104"/>
       <c r="J105" s="100"/>
@@ -20034,7 +20075,7 @@
         <v>338</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
@@ -20133,7 +20174,7 @@
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="H108" s="148" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I108" s="104"/>
       <c r="J108" s="100"/>
@@ -20247,7 +20288,7 @@
         <v>Facility.LPF001</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>1347</v>
@@ -20259,7 +20300,7 @@
       </c>
       <c r="I111" s="104"/>
       <c r="J111" s="103" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>129</v>
@@ -20333,6 +20374,9 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1639</v>
+      </c>
       <c r="B113" s="23" t="s">
         <v>21</v>
       </c>
@@ -20344,7 +20388,7 @@
         <v>342</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
@@ -20357,7 +20401,10 @@
         <v>131</v>
       </c>
       <c r="L113" s="10"/>
-      <c r="M113" s="101"/>
+      <c r="M113" s="101" t="b">
+        <f>AND(pfo_lpf003_length&gt;=1,pfo_lpf003_first&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
       <c r="N113" s="43" t="s">
         <v>1358</v>
       </c>
@@ -20406,7 +20453,7 @@
         <v>DMOBOS0002</v>
       </c>
       <c r="J114" s="119" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="K114" s="107"/>
       <c r="L114" s="108"/>
@@ -20487,7 +20534,7 @@
         <v>1361</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
@@ -20500,7 +20547,10 @@
         <v>129</v>
       </c>
       <c r="L116" s="10"/>
-      <c r="M116" s="101"/>
+      <c r="M116" s="101" t="b">
+        <f>AND(pfo_lpf005b_length&gt;=1,pfo_lpf005b_first&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
       <c r="N116" s="10" t="s">
         <v>1362</v>
       </c>
@@ -20656,11 +20706,11 @@
         <v>1364</v>
       </c>
       <c r="O119" s="122" t="b">
-        <f>AND(ABS(H119-H14)&lt;=H200,ABS(H14-H119)&lt;=H200)</f>
+        <f>AND(H119&gt;H206,H119&lt;H207)</f>
         <v>1</v>
       </c>
       <c r="P119" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="Q119" s="101"/>
       <c r="R119" s="10"/>
@@ -20760,9 +20810,12 @@
       <c r="N121" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="O121" s="101"/>
+      <c r="O121" s="101" t="b">
+        <f>H121=pfo_total_loan_lpl007</f>
+        <v>1</v>
+      </c>
       <c r="P121" s="94" t="s">
-        <v>1367</v>
+        <v>1641</v>
       </c>
       <c r="Q121" s="101"/>
       <c r="R121" s="10"/>
@@ -20809,7 +20862,7 @@
         <v>1</v>
       </c>
       <c r="N122" s="10" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O122" s="101"/>
       <c r="P122" s="10"/>
@@ -20853,7 +20906,7 @@
       <c r="L123" s="10"/>
       <c r="M123" s="101"/>
       <c r="N123" s="10" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O123" s="101"/>
       <c r="P123" s="10"/>
@@ -20887,7 +20940,7 @@
         <v>404</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>1557</v>
+        <v>1642</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
@@ -20902,7 +20955,7 @@
       <c r="L124" s="10"/>
       <c r="M124" s="101"/>
       <c r="N124" s="10" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="O124" s="101"/>
       <c r="P124" s="10"/>
@@ -20933,7 +20986,7 @@
         <v>Facility.LPF014</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E125" s="23" t="s">
         <v>136</v>
@@ -20941,7 +20994,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="103" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I125" s="104"/>
       <c r="J125" s="100"/>
@@ -20951,7 +21004,7 @@
       <c r="L125" s="10"/>
       <c r="M125" s="101"/>
       <c r="N125" s="10" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="O125" s="101"/>
       <c r="P125" s="10"/>
@@ -21000,7 +21053,7 @@
       <c r="L126" s="10"/>
       <c r="M126" s="101"/>
       <c r="N126" s="10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="O126" s="101"/>
       <c r="P126" s="10"/>
@@ -21034,7 +21087,7 @@
         <v>532</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
@@ -21078,7 +21131,7 @@
         <v>160</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
@@ -21122,7 +21175,7 @@
         <v>161</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
@@ -21163,7 +21216,7 @@
         <v>Facility.LPF019</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E130" s="23" t="s">
         <v>136</v>
@@ -21171,7 +21224,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
       <c r="H130" s="103" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I130" s="104"/>
       <c r="J130" s="100"/>
@@ -21181,7 +21234,7 @@
       <c r="L130" s="10"/>
       <c r="M130" s="101"/>
       <c r="N130" s="10" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="O130" s="101"/>
       <c r="P130" s="10"/>
@@ -21210,10 +21263,10 @@
         <v>Facility.LPF020</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E131" s="23" t="s">
-        <v>1375</v>
+        <v>1377</v>
+      </c>
+      <c r="E131" s="178" t="s">
+        <v>1640</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
@@ -21222,7 +21275,7 @@
       </c>
       <c r="I131" s="104"/>
       <c r="J131" s="100" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>131</v>
@@ -21253,7 +21306,7 @@
     <row r="132" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
       <c r="B132" s="177" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C132" s="184" t="str">
         <f>"Facility." &amp; B132</f>
@@ -21263,7 +21316,7 @@
         <v>1042</v>
       </c>
       <c r="E132" s="179" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="F132" s="181"/>
       <c r="G132" s="181"/>
@@ -21290,7 +21343,7 @@
     <row r="133" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
       <c r="B133" s="177" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C133" s="184" t="str">
         <f>"Facility." &amp; B133</f>
@@ -21300,7 +21353,7 @@
         <v>1010</v>
       </c>
       <c r="E133" s="179" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="F133" s="181"/>
       <c r="G133" s="181"/>
@@ -21383,7 +21436,7 @@
         <v>1</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O135" s="101"/>
       <c r="P135" s="10"/>
@@ -21414,7 +21467,7 @@
         <v>162</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
@@ -21434,14 +21487,14 @@
         <v>1</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="O136" s="101" t="b" cm="1">
         <f t="array" ref="O136">IF(pfo_count_eird &gt; 0,OR(H136="FWEIRS",H136="REVLNF",H136="VWES"), TRUE)</f>
         <v>0</v>
       </c>
       <c r="P136" s="10" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="Q136" s="101"/>
       <c r="R136" s="10"/>
@@ -21466,14 +21519,14 @@
         <v>Loan.LPL002b</v>
       </c>
       <c r="D137" s="108" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E137" s="107" t="s">
         <v>135</v>
       </c>
       <c r="F137" s="107"/>
       <c r="G137" s="108" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H137" s="103"/>
       <c r="I137" s="203" t="str">
@@ -21481,7 +21534,7 @@
         <v>BOSVAR0002</v>
       </c>
       <c r="J137" s="119" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="K137" s="107"/>
       <c r="L137" s="108"/>
@@ -21517,7 +21570,7 @@
         <v>163</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="F138" s="17"/>
       <c r="G138" s="17"/>
@@ -21560,7 +21613,7 @@
         <v>Loan.LPL004</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>132</v>
@@ -21568,7 +21621,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="17"/>
       <c r="H139" s="103" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I139" s="104"/>
       <c r="J139" s="100"/>
@@ -21578,7 +21631,7 @@
       <c r="L139" s="10"/>
       <c r="M139" s="101"/>
       <c r="N139" s="10" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="O139" s="101"/>
       <c r="P139" s="10"/>
@@ -21632,14 +21685,14 @@
         <v>1</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="O140" s="101" t="b">
         <f>H140&lt;=H119</f>
         <v>1</v>
       </c>
       <c r="P140" s="10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q140" s="101"/>
       <c r="R140" s="10"/>
@@ -21688,14 +21741,14 @@
         <v>1</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="O141" s="101" t="b">
         <f>H141&lt;=H120</f>
         <v>1</v>
       </c>
       <c r="P141" s="10" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="Q141" s="101"/>
       <c r="R141" s="10"/>
@@ -21744,14 +21797,14 @@
         <v>1</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="O142" s="101" t="b">
         <f>H142&lt;=H121</f>
         <v>1</v>
       </c>
       <c r="P142" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="Q142" s="101"/>
       <c r="R142" s="10"/>
@@ -21780,7 +21833,7 @@
         <v>166</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
@@ -21826,7 +21879,7 @@
         <v>167</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
@@ -21835,7 +21888,7 @@
       </c>
       <c r="I144" s="104"/>
       <c r="J144" s="100" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="K144" s="9" t="s">
         <v>129</v>
@@ -21848,28 +21901,28 @@
         <v>1</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="O144" s="101" t="b">
         <f>IF(H136="FIXIF",H144=4, TRUE)</f>
         <v>1</v>
       </c>
       <c r="P144" s="10" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="Q144" s="101" t="b">
         <f>IF(H144=3, OR(H136="FIXED",H136="FWEIRS",H136="FNEIRS", H136="BNDCAP"), TRUE)</f>
         <v>0</v>
       </c>
       <c r="R144" s="10" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="S144" s="101" t="b">
         <f>IF(H144=4,H136="FIXIF",TRUE)</f>
         <v>1</v>
       </c>
       <c r="T144" s="10" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="U144" s="101"/>
       <c r="V144" s="10"/>
@@ -21891,7 +21944,7 @@
         <v>Loan.LPL010</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>1298</v>
@@ -21912,7 +21965,7 @@
         <v>1</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="O145" s="101"/>
       <c r="P145" s="10"/>
@@ -21934,14 +21987,14 @@
     </row>
     <row r="146" spans="2:27" ht="116.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="23" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C146" s="118" t="str">
         <f t="shared" si="8"/>
         <v>Loan.LPL010a</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>1298</v>
@@ -21962,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="O146" s="101"/>
       <c r="P146" s="10"/>
@@ -21994,7 +22047,7 @@
         <v>380</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
@@ -22009,7 +22062,7 @@
       <c r="L147" s="10"/>
       <c r="M147" s="101"/>
       <c r="N147" s="10" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="O147" s="101"/>
       <c r="P147" s="10"/>
@@ -22059,14 +22112,14 @@
         <v>1</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="O148" s="122" t="b">
         <f>AND(H148&gt;=H206, H148&lt;=H207)</f>
         <v>1</v>
       </c>
       <c r="P148" s="10" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="Q148" s="101"/>
       <c r="R148" s="143"/>
@@ -22118,14 +22171,14 @@
         <v>1</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="O149" s="122" t="b">
         <f>AND(H149&gt;=H206,H149&lt;=H207)</f>
         <v>1</v>
       </c>
       <c r="P149" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="Q149" s="101"/>
       <c r="R149" s="10"/>
@@ -22172,14 +22225,14 @@
         <v>1</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="O150" s="101" t="b">
         <f>H150&lt;=H149</f>
         <v>1</v>
       </c>
       <c r="P150" s="10" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="Q150" s="101"/>
       <c r="R150" s="10"/>
@@ -22275,14 +22328,14 @@
         <v>1</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="O152" s="101" t="b">
         <f>H152&gt;=I13</f>
         <v>1</v>
       </c>
       <c r="P152" s="10" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="Q152" s="101"/>
       <c r="R152" s="61"/>
@@ -22363,7 +22416,7 @@
         <v>968</v>
       </c>
       <c r="E154" s="23" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
@@ -22406,10 +22459,10 @@
         <v>Loan.LPL019</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E155" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="17"/>
@@ -22453,7 +22506,7 @@
         <v>334</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
@@ -22497,7 +22550,7 @@
         <v>169</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="17"/>
@@ -22538,7 +22591,7 @@
         <v>Loan.LPL022</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>132</v>
@@ -22546,7 +22599,7 @@
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
       <c r="H158" s="103" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I158" s="104"/>
       <c r="J158" s="100"/>
@@ -22556,7 +22609,7 @@
       <c r="L158" s="10"/>
       <c r="M158" s="101"/>
       <c r="N158" s="10" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="O158" s="101"/>
       <c r="P158" s="10"/>
@@ -22610,7 +22663,7 @@
         <v>1</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="O159" s="101"/>
       <c r="P159" s="10"/>
@@ -22636,7 +22689,7 @@
         <v>Loan.LPL024</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>1293</v>
@@ -22657,7 +22710,7 @@
         <v>1</v>
       </c>
       <c r="N160" s="16" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="O160" s="101"/>
       <c r="P160" s="10"/>
@@ -22686,10 +22739,10 @@
         <v>Loan.LPL025</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="17"/>
@@ -22733,7 +22786,7 @@
         <v>Loan.LPL026</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>128</v>
@@ -22754,7 +22807,7 @@
         <v>1</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="O162" s="122"/>
       <c r="P162" s="10"/>
@@ -22788,7 +22841,7 @@
         <v>1000</v>
       </c>
       <c r="E163" s="178" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="17"/>
@@ -22797,7 +22850,7 @@
       </c>
       <c r="I163" s="104"/>
       <c r="J163" s="119" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="K163" s="9" t="s">
         <v>131</v>
@@ -22828,17 +22881,17 @@
     <row r="164" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15"/>
       <c r="B164" s="177" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C164" s="118" t="str">
         <f t="shared" si="8"/>
         <v>Loan.LPL100</v>
       </c>
       <c r="D164" s="178" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E164" s="179" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="F164" s="181"/>
       <c r="G164" s="181"/>
@@ -22865,17 +22918,17 @@
     <row r="165" spans="1:27" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15"/>
       <c r="B165" s="177" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C165" s="118" t="str">
         <f t="shared" si="8"/>
         <v>Loan.LPL101</v>
       </c>
       <c r="D165" s="178" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E165" s="179" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="F165" s="181"/>
       <c r="G165" s="181"/>
@@ -22918,7 +22971,7 @@
         <v>1258</v>
       </c>
       <c r="G166" s="108" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H166" s="102"/>
       <c r="I166" s="106">
@@ -22960,7 +23013,7 @@
         <v>336</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
@@ -23009,7 +23062,7 @@
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
       <c r="H168" s="103" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I168" s="104"/>
       <c r="J168" s="119"/>
@@ -23022,7 +23075,7 @@
         <v>1</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="O168" s="101"/>
       <c r="P168" s="10"/>
@@ -23056,7 +23109,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
       <c r="H169" s="148" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I169" s="104"/>
       <c r="J169" s="119"/>
@@ -23095,7 +23148,7 @@
         <v>338</v>
       </c>
       <c r="E170" s="23" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
@@ -23188,7 +23241,7 @@
       <c r="F172" s="17"/>
       <c r="G172" s="17"/>
       <c r="H172" s="148" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I172" s="104"/>
       <c r="J172" s="119"/>
@@ -23264,7 +23317,7 @@
         <v>1258</v>
       </c>
       <c r="G174" s="108" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H174" s="102"/>
       <c r="I174" s="106">
@@ -23304,10 +23357,10 @@
         <v>EIRD.LPC014</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E175" s="23" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
@@ -23370,7 +23423,7 @@
         <v>1</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="O176" s="101"/>
       <c r="P176" s="10"/>
@@ -23397,7 +23450,7 @@
         <v>EIRD.LPC016</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>128</v>
@@ -23442,7 +23495,7 @@
         <v>EIRD.LPC017</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>128</v>
@@ -23463,7 +23516,7 @@
         <v>1</v>
       </c>
       <c r="N178" s="10" t="s">
-        <v>1505</v>
+        <v>1637</v>
       </c>
       <c r="O178" s="101"/>
       <c r="P178" s="10"/>
@@ -23484,14 +23537,14 @@
     </row>
     <row r="179" spans="1:26" s="18" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="23" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C179" s="118" t="str">
         <f t="shared" si="10"/>
         <v>EIRD.LPC018a</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>1298</v>
@@ -23536,7 +23589,7 @@
         <v>EIRD.LPC018b</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>1298</v>
@@ -23574,14 +23627,14 @@
     </row>
     <row r="181" spans="1:26" s="18" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="23" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C181" s="118" t="str">
         <f t="shared" si="10"/>
         <v>EIRD.LPC018c</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>388</v>
@@ -23597,9 +23650,12 @@
         <v>129</v>
       </c>
       <c r="L181" s="10"/>
-      <c r="M181" s="101"/>
+      <c r="M181" s="115" t="b">
+        <f>H181</f>
+        <v>1</v>
+      </c>
       <c r="N181" s="10" t="s">
-        <v>1462</v>
+        <v>1638</v>
       </c>
       <c r="O181" s="101"/>
       <c r="P181" s="10"/>
@@ -23623,7 +23679,7 @@
       <c r="B182" s="124"/>
       <c r="C182" s="124"/>
       <c r="D182" s="124" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E182" s="124"/>
       <c r="F182" s="124"/>
@@ -23653,10 +23709,10 @@
         <v>393</v>
       </c>
       <c r="C183" s="63" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D183" s="125" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>128</v>
@@ -23679,7 +23735,7 @@
         <v>1</v>
       </c>
       <c r="N183" s="10" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="O183" s="101"/>
       <c r="P183" s="10"/>
@@ -23701,10 +23757,10 @@
         <v>394</v>
       </c>
       <c r="C184" s="63" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D184" s="125" t="s">
         <v>1395</v>
-      </c>
-      <c r="D184" s="125" t="s">
-        <v>1396</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>136</v>
@@ -23712,7 +23768,7 @@
       <c r="F184" s="17"/>
       <c r="G184" s="17"/>
       <c r="H184" s="99" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I184" s="99"/>
       <c r="J184" s="104"/>
@@ -23744,7 +23800,7 @@
         <v>395</v>
       </c>
       <c r="C185" s="63" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D185" s="125" t="s">
         <v>392</v>
@@ -23755,7 +23811,7 @@
       <c r="F185" s="23"/>
       <c r="G185" s="23"/>
       <c r="H185" s="99" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I185" s="99"/>
       <c r="J185" s="104"/>
@@ -23787,13 +23843,13 @@
         <v>395</v>
       </c>
       <c r="C186" s="63" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D186" s="125" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="23"/>
@@ -23821,7 +23877,7 @@
       <c r="B187" s="126"/>
       <c r="C187" s="24"/>
       <c r="D187" s="19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
@@ -23846,21 +23902,21 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B188" s="128" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C188" s="129" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D188" s="129" t="s">
         <v>1401</v>
       </c>
-      <c r="D188" s="129" t="s">
+      <c r="E188" s="128" t="s">
         <v>1402</v>
-      </c>
-      <c r="E188" s="128" t="s">
-        <v>1403</v>
       </c>
       <c r="F188" s="128"/>
       <c r="G188" s="129"/>
       <c r="H188" s="100" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I188" s="100"/>
       <c r="J188" s="100"/>
@@ -23883,21 +23939,21 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B189" s="128" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C189" s="129" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D189" s="129" t="s">
         <v>1405</v>
       </c>
-      <c r="D189" s="129" t="s">
+      <c r="E189" s="128" t="s">
         <v>1406</v>
-      </c>
-      <c r="E189" s="128" t="s">
-        <v>1407</v>
       </c>
       <c r="F189" s="128"/>
       <c r="G189" s="129"/>
       <c r="H189" s="100" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I189" s="100"/>
       <c r="J189" s="100"/>
@@ -23920,16 +23976,16 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B190" s="128" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C190" s="129" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D190" s="129" t="s">
         <v>1021</v>
       </c>
       <c r="E190" s="128" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F190" s="128"/>
       <c r="G190" s="129"/>
@@ -23957,16 +24013,16 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B191" s="128" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="C191" s="129" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D191" s="129" t="s">
         <v>1410</v>
       </c>
-      <c r="D191" s="129" t="s">
+      <c r="E191" s="128" t="s">
         <v>1411</v>
-      </c>
-      <c r="E191" s="128" t="s">
-        <v>1412</v>
       </c>
       <c r="F191" s="128"/>
       <c r="G191" s="129"/>
@@ -23994,16 +24050,16 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B192" s="128" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="C192" s="129" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D192" s="129" t="s">
         <v>1413</v>
       </c>
-      <c r="D192" s="129" t="s">
-        <v>1414</v>
-      </c>
       <c r="E192" s="128" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F192" s="128"/>
       <c r="G192" s="129"/>
@@ -24031,21 +24087,21 @@
     </row>
     <row r="193" spans="2:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B193" s="128" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C193" s="129" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D193" s="129" t="s">
         <v>1415</v>
       </c>
-      <c r="D193" s="129" t="s">
+      <c r="E193" s="128" t="s">
         <v>1416</v>
-      </c>
-      <c r="E193" s="128" t="s">
-        <v>1417</v>
       </c>
       <c r="F193" s="128"/>
       <c r="G193" s="129"/>
       <c r="H193" s="100" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="I193" s="100"/>
       <c r="J193" s="100"/>
@@ -24068,16 +24124,16 @@
     </row>
     <row r="194" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B194" s="128" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C194" s="129" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D194" s="129" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E194" s="128" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="F194" s="128"/>
       <c r="G194" s="129"/>
@@ -24107,16 +24163,16 @@
     </row>
     <row r="195" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B195" s="128" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C195" s="129" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D195" s="129" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E195" s="128" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F195" s="128"/>
       <c r="G195" s="129"/>
@@ -24146,16 +24202,16 @@
     </row>
     <row r="196" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B196" s="128" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="C196" s="129" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D196" s="129" t="s">
         <v>1419</v>
       </c>
-      <c r="D196" s="129" t="s">
+      <c r="E196" s="128" t="s">
         <v>1420</v>
-      </c>
-      <c r="E196" s="128" t="s">
-        <v>1421</v>
       </c>
       <c r="F196" s="128"/>
       <c r="G196" s="129"/>
@@ -24183,16 +24239,16 @@
     </row>
     <row r="197" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B197" s="128" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="C197" s="129" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D197" s="129" t="s">
         <v>1422</v>
       </c>
-      <c r="D197" s="129" t="s">
-        <v>1423</v>
-      </c>
       <c r="E197" s="128" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F197" s="128"/>
       <c r="G197" s="129"/>
@@ -24220,16 +24276,16 @@
     </row>
     <row r="198" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B198" s="128" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="C198" s="129" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D198" s="129" t="s">
         <v>1424</v>
       </c>
-      <c r="D198" s="129" t="s">
-        <v>1425</v>
-      </c>
       <c r="E198" s="128" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F198" s="128"/>
       <c r="G198" s="129"/>
@@ -24257,16 +24313,16 @@
     </row>
     <row r="199" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B199" s="128" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="C199" s="129" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D199" s="129" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E199" s="128" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F199" s="128"/>
       <c r="G199" s="129"/>
@@ -24294,16 +24350,16 @@
     </row>
     <row r="200" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B200" s="128" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C200" s="129" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D200" s="129" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E200" s="128" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F200" s="128"/>
       <c r="G200" s="129"/>
@@ -24330,21 +24386,21 @@
     </row>
     <row r="201" spans="2:26" ht="318.75" x14ac:dyDescent="0.2">
       <c r="B201" s="128" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C201" s="129" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D201" s="129" t="s">
         <v>1430</v>
       </c>
-      <c r="D201" s="129" t="s">
+      <c r="E201" s="128" t="s">
         <v>1431</v>
-      </c>
-      <c r="E201" s="128" t="s">
-        <v>1432</v>
       </c>
       <c r="F201" s="128"/>
       <c r="G201" s="129"/>
       <c r="H201" s="120" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I201" s="120"/>
       <c r="J201" s="100"/>
@@ -24365,21 +24421,21 @@
     </row>
     <row r="202" spans="2:26" ht="409.5" x14ac:dyDescent="0.2">
       <c r="B202" s="128" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C202" s="129" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D202" s="129" t="s">
         <v>1434</v>
       </c>
-      <c r="D202" s="129" t="s">
-        <v>1435</v>
-      </c>
       <c r="E202" s="128" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F202" s="128"/>
       <c r="G202" s="129"/>
       <c r="H202" s="120" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="I202" s="120"/>
       <c r="J202" s="100"/>
@@ -24400,21 +24456,21 @@
     </row>
     <row r="203" spans="2:26" ht="357" x14ac:dyDescent="0.2">
       <c r="B203" s="128" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C203" s="129" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D203" s="129" t="s">
         <v>1436</v>
       </c>
-      <c r="D203" s="129" t="s">
-        <v>1437</v>
-      </c>
       <c r="E203" s="128" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F203" s="128"/>
       <c r="G203" s="129"/>
       <c r="H203" s="120" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I203" s="120"/>
       <c r="J203" s="100"/>
@@ -24435,21 +24491,21 @@
     </row>
     <row r="204" spans="2:26" ht="229.5" x14ac:dyDescent="0.2">
       <c r="B204" s="128" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C204" s="129" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D204" s="129" t="s">
         <v>1439</v>
       </c>
-      <c r="D204" s="129" t="s">
-        <v>1440</v>
-      </c>
       <c r="E204" s="128" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F204" s="128"/>
       <c r="G204" s="129"/>
       <c r="H204" s="100" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="I204" s="100"/>
       <c r="J204" s="100"/>
@@ -24470,21 +24526,21 @@
     </row>
     <row r="205" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B205" s="165" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C205" s="187" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D205" s="187" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="E205" s="128" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F205" s="164"/>
       <c r="G205" s="187"/>
       <c r="H205" s="188" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="I205" s="188"/>
       <c r="J205" s="188"/>
@@ -24505,16 +24561,16 @@
     </row>
     <row r="206" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B206" s="165" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C206" s="187" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="D206" s="187" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="E206" s="164" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F206" s="164"/>
       <c r="G206" s="187"/>
@@ -24540,16 +24596,16 @@
     </row>
     <row r="207" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B207" s="165" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="C207" s="187" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="D207" s="187" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="E207" s="164" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F207" s="164"/>
       <c r="G207" s="187"/>
@@ -24575,7 +24631,7 @@
     </row>
     <row r="208" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B208" s="165" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
   </sheetData>
@@ -24788,13 +24844,13 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="134"/>
       <c r="B32" s="135" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="44" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -24837,7 +24893,7 @@
         <v>10000</v>
       </c>
       <c r="E36" s="141" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F36" s="111">
         <f>Data!H36</f>
@@ -24866,7 +24922,7 @@
         <v>#REF!</v>
       </c>
       <c r="D37" s="141" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E37" s="140">
         <f>Data!H60</f>
@@ -24894,7 +24950,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="44"/>
       <c r="B39" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -24955,7 +25011,7 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="44"/>
       <c r="B45" s="33" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -25044,7 +25100,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" s="33" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
   </sheetData>
@@ -25378,7 +25434,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -25621,7 +25677,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="44" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B58" t="b">
         <f>Data!H80</f>
@@ -25656,7 +25712,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -25822,7 +25878,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="44" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -25861,7 +25917,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -25896,7 +25952,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B3" s="139">
         <f>Data!I101</f>
@@ -25992,7 +26048,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -26000,7 +26056,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B10" t="str">
         <f>Data!H111</f>
@@ -26036,7 +26092,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B18" s="140" t="str">
         <f>Data!H115</f>
@@ -26140,7 +26196,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B38" s="111" t="str">
         <f>Data!H125</f>
@@ -26158,7 +26214,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="145" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -26166,7 +26222,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B44" t="b">
         <f>Data!H127</f>
@@ -26193,7 +26249,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="44" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B50" t="str">
         <f>Data!H130</f>
@@ -26202,7 +26258,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="44" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B52" t="b">
         <f>Data!H131</f>
@@ -26211,7 +26267,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="44" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/specifications/lp/Business intelligence systems - Project - Loan Portfolio Data Specification - V6.5.xlsx
+++ b/specifications/lp/Business intelligence systems - Project - Loan Portfolio Data Specification - V6.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ShrForms\specifications\lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941AF8CC-3377-4910-BD89-CCFEC014F8C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431FC3DB-BE48-4B2A-87A1-1C0D0C0C65A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="1646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1650">
   <si>
     <t>Field ID</t>
   </si>
@@ -5340,9 +5340,6 @@
     <t>Choice(loan_purpose.csv,4)</t>
   </si>
   <si>
-    <t>Choice(repayment_terms.csv,6)</t>
-  </si>
-  <si>
     <t>Choice(reference_interest_rate.csv,3)</t>
   </si>
   <si>
@@ -5380,6 +5377,21 @@
   </si>
   <si>
     <t>Choice(covenant_type.csv,3)</t>
+  </si>
+  <si>
+    <t>Choice(igf_purpose.csv,4)</t>
+  </si>
+  <si>
+    <t>Choice(igf_security_type.csv,3)</t>
+  </si>
+  <si>
+    <t>Choice(repayment_terms.csv,4)</t>
+  </si>
+  <si>
+    <t>If Reference Interest Rate = 'Interest free' then must = 'Waived'</t>
+  </si>
+  <si>
+    <t>16(iv). Date of valuation must fall within default date range based on Date of Return (50 years)</t>
   </si>
 </sst>
 </file>
@@ -6561,19 +6573,19 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9290,12 +9302,12 @@
       <c r="D8" s="217" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="218"/>
       <c r="G8" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="219"/>
+      <c r="H8" s="218"/>
       <c r="I8" s="74"/>
       <c r="J8" s="74"/>
     </row>
@@ -9303,15 +9315,15 @@
       <c r="C9" s="75">
         <v>1431</v>
       </c>
-      <c r="D9" s="220" t="s">
+      <c r="D9" s="221" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="222">
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="219">
         <v>1000.1</v>
       </c>
-      <c r="H9" s="222"/>
+      <c r="H9" s="219"/>
       <c r="I9" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9323,15 +9335,15 @@
       <c r="C10" s="75">
         <v>1432</v>
       </c>
-      <c r="D10" s="220" t="s">
+      <c r="D10" s="221" t="s">
         <v>457</v>
       </c>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="222">
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="219">
         <v>2000.9</v>
       </c>
-      <c r="H10" s="222"/>
+      <c r="H10" s="219"/>
       <c r="I10" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9356,12 +9368,12 @@
       <c r="D12" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="219"/>
+      <c r="E12" s="218"/>
       <c r="F12" s="217" t="s">
         <v>338</v>
       </c>
-      <c r="G12" s="218"/>
-      <c r="H12" s="219"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="218"/>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
     </row>
@@ -9369,15 +9381,15 @@
       <c r="C13" s="75">
         <v>13475</v>
       </c>
-      <c r="D13" s="220" t="s">
+      <c r="D13" s="221" t="s">
         <v>899</v>
       </c>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220" t="s">
+      <c r="E13" s="221"/>
+      <c r="F13" s="221" t="s">
         <v>878</v>
       </c>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="221"/>
       <c r="I13" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9389,15 +9401,15 @@
       <c r="C14" s="75">
         <v>13476</v>
       </c>
-      <c r="D14" s="220" t="s">
+      <c r="D14" s="221" t="s">
         <v>917</v>
       </c>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220" t="s">
+      <c r="E14" s="221"/>
+      <c r="F14" s="221" t="s">
         <v>880</v>
       </c>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
       <c r="I14" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9607,8 +9619,8 @@
       <c r="E25" s="217" t="s">
         <v>332</v>
       </c>
-      <c r="F25" s="218"/>
-      <c r="G25" s="219"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="218"/>
       <c r="H25" s="74" t="s">
         <v>1123</v>
       </c>
@@ -9668,12 +9680,12 @@
       <c r="D29" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="219"/>
+      <c r="E29" s="218"/>
       <c r="F29" s="217" t="s">
         <v>338</v>
       </c>
-      <c r="G29" s="218"/>
-      <c r="H29" s="219"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="218"/>
       <c r="I29" s="80"/>
       <c r="J29" s="74"/>
     </row>
@@ -9681,15 +9693,15 @@
       <c r="C30" s="75">
         <v>13473</v>
       </c>
-      <c r="D30" s="220" t="s">
+      <c r="D30" s="221" t="s">
         <v>899</v>
       </c>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220" t="s">
+      <c r="E30" s="221"/>
+      <c r="F30" s="221" t="s">
         <v>878</v>
       </c>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
       <c r="I30" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9701,15 +9713,15 @@
       <c r="C31" s="75">
         <v>13474</v>
       </c>
-      <c r="D31" s="220" t="s">
+      <c r="D31" s="221" t="s">
         <v>921</v>
       </c>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220" t="s">
+      <c r="E31" s="221"/>
+      <c r="F31" s="221" t="s">
         <v>880</v>
       </c>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
       <c r="I31" s="78" t="s">
         <v>1121</v>
       </c>
@@ -9728,11 +9740,11 @@
       <c r="D33" s="217" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="219"/>
+      <c r="E33" s="218"/>
       <c r="F33" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="219"/>
+      <c r="G33" s="218"/>
       <c r="H33" s="81" t="s">
         <v>172</v>
       </c>
@@ -9743,14 +9755,14 @@
       <c r="C34" s="75">
         <v>1454</v>
       </c>
-      <c r="D34" s="220" t="s">
+      <c r="D34" s="221" t="s">
         <v>1140</v>
       </c>
-      <c r="E34" s="220"/>
-      <c r="F34" s="221">
+      <c r="E34" s="221"/>
+      <c r="F34" s="222">
         <v>43133</v>
       </c>
-      <c r="G34" s="221"/>
+      <c r="G34" s="222"/>
       <c r="H34" s="84">
         <v>43134</v>
       </c>
@@ -9765,14 +9777,14 @@
       <c r="C35" s="75">
         <v>1455</v>
       </c>
-      <c r="D35" s="220" t="s">
+      <c r="D35" s="221" t="s">
         <v>1140</v>
       </c>
-      <c r="E35" s="220"/>
-      <c r="F35" s="221">
+      <c r="E35" s="221"/>
+      <c r="F35" s="222">
         <v>43132</v>
       </c>
-      <c r="G35" s="221"/>
+      <c r="G35" s="222"/>
       <c r="H35" s="84">
         <v>43159</v>
       </c>
@@ -9788,24 +9800,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D33:E33"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F30:H30"/>
@@ -9813,6 +9807,24 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15381,8 +15393,8 @@
   <dimension ref="A1:AA208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
+      <pane ySplit="8" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16635,7 +16647,7 @@
         <v>188</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>1294</v>
+        <v>1645</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -16970,7 +16982,7 @@
         <v>193</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>1295</v>
+        <v>1646</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -17165,7 +17177,7 @@
         <v>1280</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>1331</v>
+        <v>1630</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -17263,7 +17275,7 @@
         <v>1282</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>1296</v>
+        <v>1647</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -17312,7 +17324,7 @@
         <v>1283</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>1297</v>
+        <v>1632</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -17468,7 +17480,10 @@
         <v>129</v>
       </c>
       <c r="L50" s="10"/>
-      <c r="M50" s="101"/>
+      <c r="M50" s="115" t="b">
+        <f>H50</f>
+        <v>1</v>
+      </c>
       <c r="N50" s="10" t="s">
         <v>1459</v>
       </c>
@@ -19067,7 +19082,7 @@
         <v>173</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
@@ -19254,7 +19269,7 @@
         <v>176</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -19674,7 +19689,7 @@
         <v>182</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
@@ -19928,7 +19943,7 @@
         <v>336</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
@@ -20375,7 +20390,7 @@
     </row>
     <row r="113" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B113" s="23" t="s">
         <v>21</v>
@@ -20815,7 +20830,7 @@
         <v>1</v>
       </c>
       <c r="P121" s="94" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="Q121" s="101"/>
       <c r="R121" s="10"/>
@@ -20940,7 +20955,7 @@
         <v>404</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
@@ -21266,7 +21281,7 @@
         <v>1377</v>
       </c>
       <c r="E131" s="178" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
@@ -21494,7 +21509,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="Q136" s="101"/>
       <c r="R136" s="10"/>
@@ -21833,7 +21848,7 @@
         <v>166</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>1632</v>
+        <v>1647</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
@@ -21879,7 +21894,7 @@
         <v>167</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
@@ -22060,7 +22075,10 @@
         <v>129</v>
       </c>
       <c r="L147" s="10"/>
-      <c r="M147" s="101"/>
+      <c r="M147" s="115" t="b">
+        <f>IF(H146&lt;3.5,H147,TRUE)</f>
+        <v>1</v>
+      </c>
       <c r="N147" s="10" t="s">
         <v>1461</v>
       </c>
@@ -22072,10 +22090,7 @@
       <c r="T147" s="10"/>
       <c r="U147" s="101"/>
       <c r="V147" s="10"/>
-      <c r="W147" s="118" t="b">
-        <f>OR(H145&gt;20,H146&lt;3.5)</f>
-        <v>0</v>
-      </c>
+      <c r="W147" s="118"/>
       <c r="X147" s="10"/>
       <c r="Y147" s="16" t="s">
         <v>381</v>
@@ -22232,7 +22247,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="10" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q150" s="101"/>
       <c r="R150" s="10"/>
@@ -22431,8 +22446,13 @@
       <c r="L154" s="10" t="s">
         <v>1261</v>
       </c>
-      <c r="M154" s="101"/>
-      <c r="N154" s="10"/>
+      <c r="M154" s="101" t="b">
+        <f>IF(H144=4, H154=4,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="N154" s="10" t="s">
+        <v>1648</v>
+      </c>
       <c r="O154" s="101"/>
       <c r="P154" s="10"/>
       <c r="Q154" s="101"/>
@@ -22809,8 +22829,13 @@
       <c r="N162" s="10" t="s">
         <v>1481</v>
       </c>
-      <c r="O162" s="122"/>
-      <c r="P162" s="10"/>
+      <c r="O162" s="122" t="b">
+        <f>AND(H162&gt;=H206,H162&lt;=H207)</f>
+        <v>1</v>
+      </c>
+      <c r="P162" s="10" t="s">
+        <v>1649</v>
+      </c>
       <c r="Q162" s="101"/>
       <c r="R162" s="10"/>
       <c r="S162" s="101"/>
@@ -22841,7 +22866,7 @@
         <v>1000</v>
       </c>
       <c r="E163" s="178" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="17"/>
@@ -23516,7 +23541,7 @@
         <v>1</v>
       </c>
       <c r="N178" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="O178" s="101"/>
       <c r="P178" s="10"/>
@@ -23655,7 +23680,7 @@
         <v>1</v>
       </c>
       <c r="N181" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="O181" s="101"/>
       <c r="P181" s="10"/>
